--- a/imageCreationExcel/back/111/111_10.xlsx
+++ b/imageCreationExcel/back/111/111_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8.916547228960868</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.081642500330268</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9044256150514608</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_E_brightness8.917_contrast1.082_gamma0.904.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.8696107216978</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9483410151394308</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6937549844104026</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_I_brightness17.87_contrast0.948_sharpness0.694.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.049144276871685</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.027444705726055</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>30.87591563514049</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_1_contrast1.049_gamma1.027_equalization30.876.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8470620168882707</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.680600148697202</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13.50914687559415</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_B_gamma0.847_sharpness0.681_equalization13.509.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9985848964054329</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.752737006893974</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.4917184505525607</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_contrast0.999_gamma0.753_sharpness0.492.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.999546510661342</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5793556037305575</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.3817633453330139</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_0_brightness3.0_gamma0.579_sharpness0.382.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17.82401432021333</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.139374837650927</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.09703550728269193</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_1_brightness17.824_contrast1.139_sharpness0.097.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -785,19 +785,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6017590672675601</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.2080071385047093</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.873280935479984</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_9_gamma0.602_sharpness0.208_equalization7.873.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8637445302151332</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.653543244034464</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>25.10292278464292</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_contrast0.864_gamma0.654_equalization25.103.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,24 +864,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.057611095428002</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8451285417260722</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.3461695820177103</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_S_brightness3.058_contrast0.845_sharpness0.346.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21.68294550392181</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.10091849613986</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.1616949439468059</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_E_brightness21.683_contrast1.101_sharpness0.162.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15.6309666848505</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.075051729340247</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9268458333779055</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_S_brightness15.631_contrast1.075_gamma0.927.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15.25280170781192</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.167050003645991</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5760482949697251</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_9_brightness15.253_contrast1.167_gamma0.576.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.94042760950527</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8991542984966339</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.085337428623006</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_brightness3.94_contrast0.899_gamma1.085.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28.79539943274158</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.041571442983286</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.026546516680812</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_B_brightness28.795_contrast1.042_gamma1.027.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9771527739625113</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1133,22 +1133,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.7051456118524171</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>24.39427093142313</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_contrast0.977_gamma0.705_equalization24.394.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9974711651425155</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.808291936128598</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.5076823945976255</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast0.997_gamma0.808_sharpness0.508.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,16 +1200,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26.24671161903205</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7096502614677246</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.3596942013112693</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_C_brightness26.247_gamma0.71_sharpness0.36.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9399586676716801</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.2558217591846174</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>26.81621587733346</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_8_contrast0.94_sharpness0.256_equalization26.816.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10.654317342605</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.031125651060764</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.02616423871115</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_brightness10.654_contrast1.031_gamma1.026.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4.571560504413067</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6841876321541324</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.5360112524131644</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_C_brightness4.572_gamma0.684_sharpness0.536.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,15 +1377,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13.2905273275348</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.888437799305649</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.01370221286629033</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_T_brightness13.291_contrast0.888_sharpness0.014.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,39 +1410,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16.15221306449041</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.163636677550703</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.7759637349307241</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_brightness16.152_contrast1.164_gamma0.776.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15.0818123610187</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.899903412793739</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.1964736995953883</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_P_brightness15.082_contrast0.9_sharpness0.196.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,30 +1503,30 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8.613372671599093</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8713159386385703</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.6472074039789261</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_0_brightness8.613_contrast0.871_gamma0.647.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22.36006866840845</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.097018934168325</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8497298337949057</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_E_brightness22.36_gamma1.097_sharpness0.85.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,16 +1578,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6522920401099982</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03183650195037259</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>23.30199226336438</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_gamma0.652_sharpness0.032_equalization23.302.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14.42888603867006</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8688712770245961</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.9003874587976893</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_B_brightness14.429_contrast0.869_gamma0.9.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,30 +1671,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9586756760137088</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9978092499243717</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>19.95321590603992</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_1_contrast0.959_sharpness0.998_equalization19.953.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.11308336561132</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.864586235528051</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4.265257721299547</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_S_contrast1.113_sharpness0.865_equalization4.265.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10.58847743874966</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9041615578267694</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.5275182795179106</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_2_brightness10.588_contrast0.904_gamma0.528.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.9281426898580827</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5655022202635374</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>7.538732599141213</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_contrast0.928_sharpness0.566_equalization7.539.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,30 +1839,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8464613395340437</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9203668396326911</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.6267500954650012</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_T_contrast0.846_gamma0.92_sharpness0.627.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3.358587113588597</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.06008310852932</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.6100597837382093</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_3_brightness3.359_contrast1.06_gamma0.61.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,30 +1923,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14.62963832786869</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9149306437755561</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.9640440885697399</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_9_brightness14.63_contrast0.915_gamma0.964.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,15 +1965,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9154975338241287</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.3542941713484269</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15.67027920203364</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_T_contrast0.915_sharpness0.354_equalization15.67.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.734349175562177</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.047449178843468</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5200194968325068</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_brightness3.734_contrast1.047_gamma0.52.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9404847488059168</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.811345168638737</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7.632061435778457</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_1_gamma0.94_sharpness0.811_equalization7.632.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,16 +2082,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6080734751215866</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.3805908972331995</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>29.65895002415495</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_C_gamma0.608_sharpness0.381_equalization29.659.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,15 +2133,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15.35824649106107</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.101178885496295</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.2697607927872432</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_S_brightness15.358_contrast1.101_sharpness0.27.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18.00718803454215</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5863012502079004</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.5833586558545643</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_brightness18.007_gamma0.586_sharpness0.583.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8668495987890259</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.3893137210275942</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>16.38492095422828</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_gamma0.867_sharpness0.389_equalization16.385.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>22.57570299498419</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.158524396780558</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.5245260557248504</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_brightness22.576_contrast1.159_sharpness0.525.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10.34993867112717</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.081344463223623</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.1723510104888822</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_brightness10.35_contrast1.081_sharpness0.172.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>9.204997635945244</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8462939684970939</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5996558469167537</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_I_brightness9.205_contrast0.846_sharpness0.6.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.067821538461693</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.013035798854332</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>29.90452344720646</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_contrast1.068_gamma1.013_equalization29.905.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12.75046187241723</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9403415169968573</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.9829352884161934</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_0_brightness12.75_contrast0.94_gamma0.983.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8.830994890912896</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.185088061617522</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.9737994067986515</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_9_brightness8.831_contrast1.185_sharpness0.974.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
